--- a/data/financial_statements/sofp/DD.xlsx
+++ b/data/financial_statements/sofp/DD.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -152,9 +269,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -207,12 +321,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -517,144 +628,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>1896000000</v>
+        <v>1785000000</v>
       </c>
       <c r="C2">
-        <v>1508000000</v>
+        <v>1439000000</v>
       </c>
       <c r="D2">
-        <v>1734000000</v>
+        <v>1672000000</v>
       </c>
       <c r="E2">
-        <v>2023000000</v>
+        <v>1972000000</v>
       </c>
       <c r="F2">
-        <v>1738000000</v>
+        <v>1670000000</v>
       </c>
       <c r="G2">
         <v>3962000000</v>
@@ -760,8 +871,8 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
         <v>2257000000</v>
@@ -773,7 +884,7 @@
         <v>2327000000</v>
       </c>
       <c r="E3">
-        <v>2711000000</v>
+        <v>2159000000</v>
       </c>
       <c r="F3">
         <v>2908000000</v>
@@ -882,8 +993,8 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
         <v>2359000000</v>
@@ -895,7 +1006,7 @@
         <v>2238000000</v>
       </c>
       <c r="E4">
-        <v>2862000000</v>
+        <v>2086000000</v>
       </c>
       <c r="F4">
         <v>2844000000</v>
@@ -1004,23 +1115,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>7838000000</v>
+        <v>216000000</v>
       </c>
       <c r="C5">
-        <v>7875000000</v>
+        <v>187000000</v>
       </c>
       <c r="D5">
-        <v>8144000000</v>
+        <v>431000000</v>
       </c>
       <c r="E5">
-        <v>469000000</v>
+        <v>422000000</v>
       </c>
       <c r="F5">
-        <v>1007000000</v>
+        <v>1075000000</v>
       </c>
       <c r="G5">
         <v>1062000000</v>
@@ -1126,8 +1237,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>14350000000</v>
@@ -1139,7 +1250,7 @@
         <v>14443000000</v>
       </c>
       <c r="E6">
-        <v>8065000000</v>
+        <v>14303000000</v>
       </c>
       <c r="F6">
         <v>8497000000</v>
@@ -1248,23 +1359,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>5863000000</v>
+        <v>5477000000</v>
       </c>
       <c r="C7">
-        <v>5994000000</v>
+        <v>5564000000</v>
       </c>
       <c r="D7">
-        <v>6087000000</v>
+        <v>5668000000</v>
       </c>
       <c r="E7">
-        <v>7434000000</v>
+        <v>5753000000</v>
       </c>
       <c r="F7">
-        <v>7344000000</v>
+        <v>6921000000</v>
       </c>
       <c r="G7">
         <v>6856000000</v>
@@ -1370,23 +1481,23 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>1093000000</v>
+        <v>779000000</v>
       </c>
       <c r="C8">
-        <v>1046000000</v>
+        <v>836000000</v>
       </c>
       <c r="D8">
-        <v>874000000</v>
+        <v>821000000</v>
       </c>
       <c r="E8">
-        <v>1108000000</v>
+        <v>919000000</v>
       </c>
       <c r="F8">
-        <v>1079000000</v>
+        <v>1029000000</v>
       </c>
       <c r="G8">
         <v>1068000000</v>
@@ -1492,8 +1603,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>21852000000</v>
@@ -1505,7 +1616,7 @@
         <v>22918000000</v>
       </c>
       <c r="E9">
-        <v>28020000000</v>
+        <v>23203000000</v>
       </c>
       <c r="F9">
         <v>28332000000</v>
@@ -1614,8 +1725,8 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
         <v>122000000</v>
@@ -1736,23 +1847,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>819000000</v>
+        <v>103000000</v>
       </c>
       <c r="C11">
-        <v>842000000</v>
+        <v>53000000</v>
       </c>
       <c r="D11">
-        <v>944000000</v>
+        <v>53000000</v>
       </c>
       <c r="E11">
-        <v>937000000</v>
+        <v>53000000</v>
       </c>
       <c r="F11">
-        <v>588000000</v>
+        <v>50000000</v>
       </c>
       <c r="G11">
         <v>555000000</v>
@@ -1819,8 +1930,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>29749000000</v>
@@ -1941,8 +2052,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>44099000000</v>
@@ -2063,8 +2174,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="P14">
         <v>2995000000</v>
@@ -2140,8 +2251,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>2061000000</v>
@@ -2153,7 +2264,7 @@
         <v>2176000000</v>
       </c>
       <c r="E15">
-        <v>2612000000</v>
+        <v>2102000000</v>
       </c>
       <c r="F15">
         <v>2538000000</v>
@@ -2262,8 +2373,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="W16">
         <v>559000000</v>
@@ -2318,8 +2429,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>990000000</v>
@@ -2440,20 +2551,20 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>1371000000</v>
+        <v>1287000000</v>
       </c>
       <c r="C18">
-        <v>751000000</v>
+        <v>661000000</v>
       </c>
       <c r="D18">
-        <v>498000000</v>
+        <v>405000000</v>
       </c>
       <c r="E18">
-        <v>251000000</v>
+        <v>150000000</v>
       </c>
       <c r="F18">
         <v>99000000</v>
@@ -2562,8 +2673,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>284000000</v>
@@ -2684,8 +2795,8 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="AD20">
         <v>119000000</v>
@@ -2722,8 +2833,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>2298000000</v>
@@ -2732,13 +2843,13 @@
         <v>2256000000</v>
       </c>
       <c r="D21">
-        <v>2251000000</v>
+        <v>31000000</v>
       </c>
       <c r="E21">
-        <v>1121000000</v>
+        <v>25000000</v>
       </c>
       <c r="F21">
-        <v>1378000000</v>
+        <v>142000000</v>
       </c>
       <c r="G21">
         <v>136000000</v>
@@ -2766,8 +2877,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>6014000000</v>
@@ -2779,7 +2890,7 @@
         <v>5122000000</v>
       </c>
       <c r="E22">
-        <v>4262000000</v>
+        <v>4931000000</v>
       </c>
       <c r="F22">
         <v>4221000000</v>
@@ -2888,23 +2999,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>10865000000</v>
+        <v>10564000000</v>
       </c>
       <c r="C23">
-        <v>10968000000</v>
+        <v>10625000000</v>
       </c>
       <c r="D23">
-        <v>10966000000</v>
+        <v>10634000000</v>
       </c>
       <c r="E23">
-        <v>11006000000</v>
+        <v>10632000000</v>
       </c>
       <c r="F23">
-        <v>10960000000</v>
+        <v>10629000000</v>
       </c>
       <c r="G23">
         <v>10627000000</v>
@@ -3010,8 +3121,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="G24">
         <v>11000000</v>
@@ -3033,8 +3144,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>625000000</v>
@@ -3155,23 +3266,23 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>342000000</v>
+        <v>464000000</v>
       </c>
       <c r="C26">
-        <v>453000000</v>
+        <v>590000000</v>
       </c>
       <c r="D26">
-        <v>1149000000</v>
+        <v>1276000000</v>
       </c>
       <c r="E26">
-        <v>1831000000</v>
+        <v>1459000000</v>
       </c>
       <c r="F26">
-        <v>1839000000</v>
+        <v>2014000000</v>
       </c>
       <c r="G26">
         <v>1869000000</v>
@@ -3277,8 +3388,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="AD27">
         <v>108000000</v>
@@ -3315,23 +3426,23 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>1253000000</v>
+        <v>929000000</v>
       </c>
       <c r="C28">
-        <v>1251000000</v>
+        <v>900000000</v>
       </c>
       <c r="D28">
-        <v>1238000000</v>
+        <v>837000000</v>
       </c>
       <c r="E28">
-        <v>1415000000</v>
+        <v>873000000</v>
       </c>
       <c r="F28">
-        <v>1581000000</v>
+        <v>895000000</v>
       </c>
       <c r="G28">
         <v>894000000</v>
@@ -3437,8 +3548,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>12582000000</v>
@@ -3559,8 +3670,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>18596000000</v>
@@ -3681,8 +3792,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>49199000000</v>
@@ -3803,8 +3914,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="Z32">
         <v>4000000000</v>
@@ -3853,8 +3964,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>5000000</v>
@@ -3975,8 +4086,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>-22692000000</v>
@@ -4097,8 +4208,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -4174,8 +4285,8 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -4257,23 +4368,23 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
-        <v>24909000000</v>
+        <v>25503000000</v>
       </c>
       <c r="C37">
-        <v>25528000000</v>
+        <v>26137000000</v>
       </c>
       <c r="D37">
-        <v>26176000000</v>
+        <v>26791000000</v>
       </c>
       <c r="E37">
-        <v>26433000000</v>
+        <v>27050000000</v>
       </c>
       <c r="F37">
-        <v>26633000000</v>
+        <v>27239000000</v>
       </c>
       <c r="G37">
         <v>27464000000</v>
@@ -4379,23 +4490,23 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B38">
-        <v>24909000000</v>
+        <v>25503000000</v>
       </c>
       <c r="C38">
-        <v>25528000000</v>
+        <v>26137000000</v>
       </c>
       <c r="D38">
-        <v>26176000000</v>
+        <v>26791000000</v>
       </c>
       <c r="E38">
-        <v>26433000000</v>
+        <v>27050000000</v>
       </c>
       <c r="F38">
-        <v>26633000000</v>
+        <v>27239000000</v>
       </c>
       <c r="G38">
         <v>27464000000</v>
@@ -4501,8 +4612,8 @@
       </c>
     </row>
     <row r="39" spans="1:40">
-      <c r="A39" t="s">
-        <v>38</v>
+      <c r="A39" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B39">
         <v>44099000000</v>
@@ -4623,8 +4734,8 @@
       </c>
     </row>
     <row r="40" spans="1:40">
-      <c r="A40" t="s">
-        <v>39</v>
+      <c r="A40" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B40">
         <v>496738000</v>
@@ -4745,8 +4856,8 @@
       </c>
     </row>
     <row r="41" spans="1:40">
-      <c r="A41" t="s">
-        <v>40</v>
+      <c r="A41" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="AC41">
         <v>1333200</v>
@@ -4759,8 +4870,8 @@
       </c>
     </row>
     <row r="42" spans="1:40">
-      <c r="A42" t="s">
-        <v>41</v>
+      <c r="A42" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="B42">
         <v>3651000000</v>
@@ -4881,23 +4992,23 @@
       </c>
     </row>
     <row r="43" spans="1:40">
-      <c r="A43" t="s">
-        <v>42</v>
+      <c r="A43" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B43">
-        <v>10340000000</v>
+        <v>10066000000</v>
       </c>
       <c r="C43">
-        <v>10211000000</v>
+        <v>9847000000</v>
       </c>
       <c r="D43">
-        <v>9730000000</v>
+        <v>9367000000</v>
       </c>
       <c r="E43">
-        <v>9234000000</v>
+        <v>8810000000</v>
       </c>
       <c r="F43">
-        <v>9321000000</v>
+        <v>9058000000</v>
       </c>
       <c r="G43">
         <v>6760000000</v>
@@ -5003,23 +5114,23 @@
       </c>
     </row>
     <row r="44" spans="1:40">
-      <c r="A44" t="s">
-        <v>43</v>
+      <c r="A44" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B44">
-        <v>12236000000</v>
+        <v>11851000000</v>
       </c>
       <c r="C44">
-        <v>11719000000</v>
+        <v>11286000000</v>
       </c>
       <c r="D44">
-        <v>11464000000</v>
+        <v>11039000000</v>
       </c>
       <c r="E44">
-        <v>11257000000</v>
+        <v>10782000000</v>
       </c>
       <c r="F44">
-        <v>11059000000</v>
+        <v>10728000000</v>
       </c>
       <c r="G44">
         <v>10722000000</v>
